--- a/Modelos em Python/estatistica.xlsx
+++ b/Modelos em Python/estatistica.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Modelos em Python/estatistica.xlsx
+++ b/Modelos em Python/estatistica.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1096</v>
+        <v>366</v>
       </c>
       <c r="C2" t="n">
-        <v>1096</v>
+        <v>366</v>
       </c>
       <c r="D2" t="n">
-        <v>1096</v>
+        <v>366</v>
       </c>
       <c r="E2" t="n">
-        <v>1096</v>
+        <v>366</v>
       </c>
       <c r="F2" t="n">
-        <v>1096</v>
+        <v>366</v>
       </c>
       <c r="G2" t="n">
-        <v>1096</v>
+        <v>366</v>
       </c>
       <c r="H2" t="n">
-        <v>1096</v>
+        <v>366</v>
       </c>
       <c r="I2" t="n">
-        <v>1096</v>
+        <v>366</v>
       </c>
       <c r="J2" t="n">
-        <v>1096</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.83049662563609</v>
+        <v>41.93208175219548</v>
       </c>
       <c r="C3" t="n">
-        <v>17.5380553201287</v>
+        <v>15.78064023553419</v>
       </c>
       <c r="D3" t="n">
-        <v>4.298656732949123</v>
+        <v>6.213366625030354</v>
       </c>
       <c r="E3" t="n">
-        <v>3.544512409073705</v>
+        <v>3.607910480764177</v>
       </c>
       <c r="F3" t="n">
-        <v>211.7706161360047</v>
+        <v>203.938601407225</v>
       </c>
       <c r="G3" t="n">
-        <v>113.8049856985188</v>
+        <v>111.7568948770481</v>
       </c>
       <c r="H3" t="n">
-        <v>100.1386116027244</v>
+        <v>92.04880064014533</v>
       </c>
       <c r="I3" t="n">
-        <v>4.485224716262816</v>
+        <v>4.559932283120729</v>
       </c>
       <c r="J3" t="n">
-        <v>19.42430642751307</v>
+        <v>16.83298848841968</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.35403758424622</v>
+        <v>17.62456907440957</v>
       </c>
       <c r="C4" t="n">
-        <v>9.281922928687262</v>
+        <v>11.48719359029862</v>
       </c>
       <c r="D4" t="n">
-        <v>8.975660293398585</v>
+        <v>10.85106528397064</v>
       </c>
       <c r="E4" t="n">
-        <v>0.437641826314247</v>
+        <v>0.4843131955666993</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49607763603351</v>
+        <v>65.82255709559804</v>
       </c>
       <c r="G4" t="n">
-        <v>21.48590267252139</v>
+        <v>32.62572916958052</v>
       </c>
       <c r="H4" t="n">
-        <v>19.82171448410822</v>
+        <v>30.56081767996156</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4868946259204839</v>
+        <v>0.5568456116006034</v>
       </c>
       <c r="J4" t="n">
-        <v>4.323327372063621</v>
+        <v>6.323931194687046</v>
       </c>
     </row>
     <row r="5">
@@ -610,7 +610,7 @@
         <v>10.38335466951442</v>
       </c>
       <c r="I5" t="n">
-        <v>1.924964961906274</v>
+        <v>2.59959522386392</v>
       </c>
       <c r="J5" t="n">
         <v>0.830831985299786</v>
@@ -623,31 +623,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.49129815896352</v>
+        <v>33.59522485346921</v>
       </c>
       <c r="C6" t="n">
-        <v>13.28893739627771</v>
+        <v>6.385696351528168</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.34512352074186</v>
+        <v>3.348583160589139</v>
       </c>
       <c r="F6" t="n">
-        <v>195.9441181818644</v>
+        <v>176.9232137460882</v>
       </c>
       <c r="G6" t="n">
-        <v>105.0956687927246</v>
+        <v>87.52739651997884</v>
       </c>
       <c r="H6" t="n">
-        <v>99.23874223232269</v>
+        <v>73.51891450809005</v>
       </c>
       <c r="I6" t="n">
-        <v>4.244901262223721</v>
+        <v>4.224367852012317</v>
       </c>
       <c r="J6" t="n">
-        <v>19.80549195408821</v>
+        <v>13.1975341582438</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +657,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.20352204640706</v>
+        <v>52.68957177797953</v>
       </c>
       <c r="C7" t="n">
-        <v>19.96455399195353</v>
+        <v>16.35032784938812</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.644086455305417</v>
+        <v>3.739742388327916</v>
       </c>
       <c r="F7" t="n">
-        <v>215.7909027497905</v>
+        <v>221.3267697224704</v>
       </c>
       <c r="G7" t="n">
-        <v>115.73304160436</v>
+        <v>122.6695812543233</v>
       </c>
       <c r="H7" t="n">
-        <v>104.8455746173859</v>
+        <v>105.6882766882579</v>
       </c>
       <c r="I7" t="n">
-        <v>4.570759559671083</v>
+        <v>4.663153638442358</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0151140888532</v>
+        <v>20.1969812878718</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.81836120287578</v>
+        <v>54.72612857818604</v>
       </c>
       <c r="C8" t="n">
-        <v>22.79150666793187</v>
+        <v>23.1066487232844</v>
       </c>
       <c r="D8" t="n">
-        <v>2.375865578651428</v>
+        <v>8.636337161064148</v>
       </c>
       <c r="E8" t="n">
-        <v>3.842757031011085</v>
+        <v>3.991529899338881</v>
       </c>
       <c r="F8" t="n">
-        <v>238.325010770311</v>
+        <v>252.2883229725218</v>
       </c>
       <c r="G8" t="n">
-        <v>126.2463799715042</v>
+        <v>132.9382044474284</v>
       </c>
       <c r="H8" t="n">
-        <v>110.005658864975</v>
+        <v>112.0343939463298</v>
       </c>
       <c r="I8" t="n">
-        <v>4.813108007113139</v>
+        <v>5.014958746731281</v>
       </c>
       <c r="J8" t="n">
-        <v>21.14013649026553</v>
+        <v>21.11952479680379</v>
       </c>
     </row>
     <row r="9">
@@ -749,7 +749,7 @@
         <v>5.475386639436086</v>
       </c>
       <c r="J9" t="n">
-        <v>23.67893306414286</v>
+        <v>22.69398617744446</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/estatistica.xlsx
+++ b/Modelos em Python/estatistica.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>366</v>
+        <v>1096</v>
       </c>
       <c r="C2" t="n">
-        <v>366</v>
+        <v>1096</v>
       </c>
       <c r="D2" t="n">
-        <v>366</v>
+        <v>1096</v>
       </c>
       <c r="E2" t="n">
-        <v>366</v>
+        <v>1096</v>
       </c>
       <c r="F2" t="n">
-        <v>366</v>
+        <v>1096</v>
       </c>
       <c r="G2" t="n">
-        <v>366</v>
+        <v>1096</v>
       </c>
       <c r="H2" t="n">
-        <v>366</v>
+        <v>1096</v>
       </c>
       <c r="I2" t="n">
-        <v>366</v>
+        <v>1096</v>
       </c>
       <c r="J2" t="n">
-        <v>366</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.93208175219548</v>
+        <v>51.94644468912547</v>
       </c>
       <c r="C3" t="n">
-        <v>15.78064023553419</v>
+        <v>27.8114452154</v>
       </c>
       <c r="D3" t="n">
-        <v>6.213366625030354</v>
+        <v>6.399400297941156</v>
       </c>
       <c r="E3" t="n">
-        <v>3.607910480764177</v>
+        <v>3.235475374934991</v>
       </c>
       <c r="F3" t="n">
-        <v>203.938601407225</v>
+        <v>112.6768209717529</v>
       </c>
       <c r="G3" t="n">
-        <v>111.7568948770481</v>
+        <v>132.9437265895579</v>
       </c>
       <c r="H3" t="n">
-        <v>92.04880064014533</v>
+        <v>112.4051449467912</v>
       </c>
       <c r="I3" t="n">
-        <v>4.559932283120729</v>
+        <v>4.107763069441175</v>
       </c>
       <c r="J3" t="n">
-        <v>16.83298848841968</v>
+        <v>20.79400554271757</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.62456907440957</v>
+        <v>16.23683015900667</v>
       </c>
       <c r="C4" t="n">
-        <v>11.48719359029862</v>
+        <v>15.9763007190126</v>
       </c>
       <c r="D4" t="n">
-        <v>10.85106528397064</v>
+        <v>15.83322944661304</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4843131955666993</v>
+        <v>0.6080894272308822</v>
       </c>
       <c r="F4" t="n">
-        <v>65.82255709559804</v>
+        <v>116.2764868804748</v>
       </c>
       <c r="G4" t="n">
-        <v>32.62572916958052</v>
+        <v>41.35585398119531</v>
       </c>
       <c r="H4" t="n">
-        <v>30.56081767996156</v>
+        <v>29.97541339344741</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5568456116006034</v>
+        <v>0.6794154640298505</v>
       </c>
       <c r="J4" t="n">
-        <v>6.323931194687046</v>
+        <v>5.949494054315778</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +598,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.458839648713668</v>
+        <v>0.4035571813583374</v>
       </c>
       <c r="F5" t="n">
-        <v>22.85387429315597</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.583976109822591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>10.38335466951442</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2.59959522386392</v>
+        <v>0.885139986872673</v>
       </c>
       <c r="J5" t="n">
-        <v>0.830831985299786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -623,31 +623,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.59522485346921</v>
+        <v>57.63188147544861</v>
       </c>
       <c r="C6" t="n">
-        <v>6.385696351528168</v>
+        <v>21.26508140563965</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.348583160589139</v>
+        <v>2.888587400317192</v>
       </c>
       <c r="F6" t="n">
-        <v>176.9232137460882</v>
+        <v>0.1157407388091087</v>
       </c>
       <c r="G6" t="n">
-        <v>87.52739651997884</v>
+        <v>125.3387875556946</v>
       </c>
       <c r="H6" t="n">
-        <v>73.51891450809005</v>
+        <v>113.1319599151611</v>
       </c>
       <c r="I6" t="n">
-        <v>4.224367852012317</v>
+        <v>3.724279373884201</v>
       </c>
       <c r="J6" t="n">
-        <v>13.1975341582438</v>
+        <v>22.28220093250275</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +657,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.68957177797953</v>
+        <v>57.98879241943359</v>
       </c>
       <c r="C7" t="n">
-        <v>16.35032784938812</v>
+        <v>34.97258806228638</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.739742388327916</v>
+        <v>3.3063944876194</v>
       </c>
       <c r="F7" t="n">
-        <v>221.3267697224704</v>
+        <v>67.00130307208747</v>
       </c>
       <c r="G7" t="n">
-        <v>122.6695812543233</v>
+        <v>136.0427274703979</v>
       </c>
       <c r="H7" t="n">
-        <v>105.6882766882579</v>
+        <v>119.1368169784546</v>
       </c>
       <c r="I7" t="n">
-        <v>4.663153638442358</v>
+        <v>4.141564667224884</v>
       </c>
       <c r="J7" t="n">
-        <v>20.1969812878718</v>
+        <v>22.50062918663025</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.72612857818604</v>
+        <v>57.98879241943359</v>
       </c>
       <c r="C8" t="n">
-        <v>23.1066487232844</v>
+        <v>37.53117561340332</v>
       </c>
       <c r="D8" t="n">
-        <v>8.636337161064148</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.991529899338881</v>
+        <v>3.643114596605301</v>
       </c>
       <c r="F8" t="n">
-        <v>252.2883229725218</v>
+        <v>258.2427616119385</v>
       </c>
       <c r="G8" t="n">
-        <v>132.9382044474284</v>
+        <v>147.360050201416</v>
       </c>
       <c r="H8" t="n">
-        <v>112.0343939463298</v>
+        <v>124.7097067832947</v>
       </c>
       <c r="I8" t="n">
-        <v>5.014958746731281</v>
+        <v>4.519843012094498</v>
       </c>
       <c r="J8" t="n">
-        <v>21.11952479680379</v>
+        <v>22.75351810455322</v>
       </c>
     </row>
     <row r="9">
@@ -725,31 +725,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57.88474162419637</v>
+        <v>59.98828125</v>
       </c>
       <c r="C9" t="n">
-        <v>53.48839553197225</v>
+        <v>57.99245452880859</v>
       </c>
       <c r="D9" t="n">
-        <v>46.84133418401083</v>
+        <v>57.98879241943359</v>
       </c>
       <c r="E9" t="n">
-        <v>4.255610962708791</v>
+        <v>4.395717978477478</v>
       </c>
       <c r="F9" t="n">
-        <v>301.8628196716309</v>
+        <v>379.1951751708984</v>
       </c>
       <c r="G9" t="n">
-        <v>181.5654780069987</v>
+        <v>285.5572242736816</v>
       </c>
       <c r="H9" t="n">
-        <v>143.9884147644043</v>
+        <v>170.5608863830566</v>
       </c>
       <c r="I9" t="n">
-        <v>5.475386639436086</v>
+        <v>5.658952713012695</v>
       </c>
       <c r="J9" t="n">
-        <v>22.69398617744446</v>
+        <v>27.49927759170532</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/estatistica.xlsx
+++ b/Modelos em Python/estatistica.xlsx
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.94644468912547</v>
+        <v>48.83049662563609</v>
       </c>
       <c r="C3" t="n">
-        <v>27.8114452154</v>
+        <v>17.5380553201287</v>
       </c>
       <c r="D3" t="n">
-        <v>6.399400297941156</v>
+        <v>4.298656732949123</v>
       </c>
       <c r="E3" t="n">
-        <v>3.235475374934991</v>
+        <v>3.544512409073705</v>
       </c>
       <c r="F3" t="n">
-        <v>112.6768209717529</v>
+        <v>211.7706161360047</v>
       </c>
       <c r="G3" t="n">
-        <v>132.9437265895579</v>
+        <v>113.8049856985188</v>
       </c>
       <c r="H3" t="n">
-        <v>112.4051449467912</v>
+        <v>100.1386116027244</v>
       </c>
       <c r="I3" t="n">
-        <v>4.107763069441175</v>
+        <v>4.485224716262816</v>
       </c>
       <c r="J3" t="n">
-        <v>20.79400554271757</v>
+        <v>19.42430642751307</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.23683015900667</v>
+        <v>12.35403758424622</v>
       </c>
       <c r="C4" t="n">
-        <v>15.9763007190126</v>
+        <v>9.281922928687262</v>
       </c>
       <c r="D4" t="n">
-        <v>15.83322944661304</v>
+        <v>8.975660293398585</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6080894272308822</v>
+        <v>0.437641826314247</v>
       </c>
       <c r="F4" t="n">
-        <v>116.2764868804748</v>
+        <v>44.49607763603351</v>
       </c>
       <c r="G4" t="n">
-        <v>41.35585398119531</v>
+        <v>21.48590267252139</v>
       </c>
       <c r="H4" t="n">
-        <v>29.97541339344741</v>
+        <v>19.82171448410822</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6794154640298505</v>
+        <v>0.4868946259204839</v>
       </c>
       <c r="J4" t="n">
-        <v>5.949494054315778</v>
+        <v>4.323327372063621</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +598,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4035571813583374</v>
+        <v>1.458839648713668</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>22.85387429315597</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.583976109822591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>10.38335466951442</v>
       </c>
       <c r="I5" t="n">
-        <v>0.885139986872673</v>
+        <v>1.924964961906274</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.830831985299786</v>
       </c>
     </row>
     <row r="6">
@@ -623,31 +623,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.63188147544861</v>
+        <v>50.49129815896352</v>
       </c>
       <c r="C6" t="n">
-        <v>21.26508140563965</v>
+        <v>13.28893739627771</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.888587400317192</v>
+        <v>3.34512352074186</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1157407388091087</v>
+        <v>195.9441181818644</v>
       </c>
       <c r="G6" t="n">
-        <v>125.3387875556946</v>
+        <v>105.0956687927246</v>
       </c>
       <c r="H6" t="n">
-        <v>113.1319599151611</v>
+        <v>99.23874223232269</v>
       </c>
       <c r="I6" t="n">
-        <v>3.724279373884201</v>
+        <v>4.244901262223721</v>
       </c>
       <c r="J6" t="n">
-        <v>22.28220093250275</v>
+        <v>19.80549195408821</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +657,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57.98879241943359</v>
+        <v>54.20352204640706</v>
       </c>
       <c r="C7" t="n">
-        <v>34.97258806228638</v>
+        <v>19.96455399195353</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.3063944876194</v>
+        <v>3.644086455305417</v>
       </c>
       <c r="F7" t="n">
-        <v>67.00130307208747</v>
+        <v>215.7909027497905</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0427274703979</v>
+        <v>115.73304160436</v>
       </c>
       <c r="H7" t="n">
-        <v>119.1368169784546</v>
+        <v>104.8455746173859</v>
       </c>
       <c r="I7" t="n">
-        <v>4.141564667224884</v>
+        <v>4.570759559671083</v>
       </c>
       <c r="J7" t="n">
-        <v>22.50062918663025</v>
+        <v>21.0151140888532</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57.98879241943359</v>
+        <v>54.81836120287578</v>
       </c>
       <c r="C8" t="n">
-        <v>37.53117561340332</v>
+        <v>22.79150666793187</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2.375865578651428</v>
       </c>
       <c r="E8" t="n">
-        <v>3.643114596605301</v>
+        <v>3.842757031011085</v>
       </c>
       <c r="F8" t="n">
-        <v>258.2427616119385</v>
+        <v>238.325010770311</v>
       </c>
       <c r="G8" t="n">
-        <v>147.360050201416</v>
+        <v>126.2463799715042</v>
       </c>
       <c r="H8" t="n">
-        <v>124.7097067832947</v>
+        <v>110.005658864975</v>
       </c>
       <c r="I8" t="n">
-        <v>4.519843012094498</v>
+        <v>4.813108007113139</v>
       </c>
       <c r="J8" t="n">
-        <v>22.75351810455322</v>
+        <v>21.14013649026553</v>
       </c>
     </row>
     <row r="9">
@@ -725,31 +725,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59.98828125</v>
+        <v>57.88474162419637</v>
       </c>
       <c r="C9" t="n">
-        <v>57.99245452880859</v>
+        <v>53.48839553197225</v>
       </c>
       <c r="D9" t="n">
-        <v>57.98879241943359</v>
+        <v>46.84133418401083</v>
       </c>
       <c r="E9" t="n">
-        <v>4.395717978477478</v>
+        <v>4.255610962708791</v>
       </c>
       <c r="F9" t="n">
-        <v>379.1951751708984</v>
+        <v>301.8628196716309</v>
       </c>
       <c r="G9" t="n">
-        <v>285.5572242736816</v>
+        <v>181.5654780069987</v>
       </c>
       <c r="H9" t="n">
-        <v>170.5608863830566</v>
+        <v>143.9884147644043</v>
       </c>
       <c r="I9" t="n">
-        <v>5.658952713012695</v>
+        <v>5.475386639436086</v>
       </c>
       <c r="J9" t="n">
-        <v>27.49927759170532</v>
+        <v>23.67893306414286</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/estatistica.xlsx
+++ b/Modelos em Python/estatistica.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.83049662563609</v>
+        <v>51.94644468912547</v>
       </c>
       <c r="C3" t="n">
-        <v>17.5380553201287</v>
+        <v>27.8114452154</v>
       </c>
       <c r="D3" t="n">
-        <v>4.298656732949123</v>
+        <v>6.399400297941156</v>
       </c>
       <c r="E3" t="n">
-        <v>3.544512409073705</v>
+        <v>3.235475374934991</v>
       </c>
       <c r="F3" t="n">
-        <v>211.7706161360047</v>
+        <v>112.6768209717529</v>
       </c>
       <c r="G3" t="n">
-        <v>113.8049856985188</v>
+        <v>132.9437265895579</v>
       </c>
       <c r="H3" t="n">
-        <v>100.1386116027244</v>
+        <v>112.4051449467912</v>
       </c>
       <c r="I3" t="n">
-        <v>4.485224716262816</v>
+        <v>4.107763069441175</v>
       </c>
       <c r="J3" t="n">
-        <v>19.42430642751307</v>
+        <v>20.79400554271757</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.35403758424622</v>
+        <v>16.23683015900667</v>
       </c>
       <c r="C4" t="n">
-        <v>9.281922928687262</v>
+        <v>15.9763007190126</v>
       </c>
       <c r="D4" t="n">
-        <v>8.975660293398585</v>
+        <v>15.83322944661304</v>
       </c>
       <c r="E4" t="n">
-        <v>0.437641826314247</v>
+        <v>0.6080894272308822</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49607763603351</v>
+        <v>116.2764868804748</v>
       </c>
       <c r="G4" t="n">
-        <v>21.48590267252139</v>
+        <v>41.35585398119531</v>
       </c>
       <c r="H4" t="n">
-        <v>19.82171448410822</v>
+        <v>29.97541339344741</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4868946259204839</v>
+        <v>0.6794154640298505</v>
       </c>
       <c r="J4" t="n">
-        <v>4.323327372063621</v>
+        <v>5.949494054315778</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +598,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.458839648713668</v>
+        <v>0.4035571813583374</v>
       </c>
       <c r="F5" t="n">
-        <v>22.85387429315597</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.583976109822591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>10.38335466951442</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1.924964961906274</v>
+        <v>0.885139986872673</v>
       </c>
       <c r="J5" t="n">
-        <v>0.830831985299786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -623,31 +623,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.49129815896352</v>
+        <v>57.63188147544861</v>
       </c>
       <c r="C6" t="n">
-        <v>13.28893739627771</v>
+        <v>21.26508140563965</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.34512352074186</v>
+        <v>2.888587400317192</v>
       </c>
       <c r="F6" t="n">
-        <v>195.9441181818644</v>
+        <v>0.1157407388091087</v>
       </c>
       <c r="G6" t="n">
-        <v>105.0956687927246</v>
+        <v>125.3387875556946</v>
       </c>
       <c r="H6" t="n">
-        <v>99.23874223232269</v>
+        <v>113.1319599151611</v>
       </c>
       <c r="I6" t="n">
-        <v>4.244901262223721</v>
+        <v>3.724279373884201</v>
       </c>
       <c r="J6" t="n">
-        <v>19.80549195408821</v>
+        <v>22.28220093250275</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +657,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.20352204640706</v>
+        <v>57.98879241943359</v>
       </c>
       <c r="C7" t="n">
-        <v>19.96455399195353</v>
+        <v>34.97258806228638</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.644086455305417</v>
+        <v>3.3063944876194</v>
       </c>
       <c r="F7" t="n">
-        <v>215.7909027497905</v>
+        <v>67.00130307208747</v>
       </c>
       <c r="G7" t="n">
-        <v>115.73304160436</v>
+        <v>136.0427274703979</v>
       </c>
       <c r="H7" t="n">
-        <v>104.8455746173859</v>
+        <v>119.1368169784546</v>
       </c>
       <c r="I7" t="n">
-        <v>4.570759559671083</v>
+        <v>4.141564667224884</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0151140888532</v>
+        <v>22.50062918663025</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.81836120287578</v>
+        <v>57.98879241943359</v>
       </c>
       <c r="C8" t="n">
-        <v>22.79150666793187</v>
+        <v>37.53117561340332</v>
       </c>
       <c r="D8" t="n">
-        <v>2.375865578651428</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.842757031011085</v>
+        <v>3.643114596605301</v>
       </c>
       <c r="F8" t="n">
-        <v>238.325010770311</v>
+        <v>258.2427616119385</v>
       </c>
       <c r="G8" t="n">
-        <v>126.2463799715042</v>
+        <v>147.360050201416</v>
       </c>
       <c r="H8" t="n">
-        <v>110.005658864975</v>
+        <v>124.7097067832947</v>
       </c>
       <c r="I8" t="n">
-        <v>4.813108007113139</v>
+        <v>4.519843012094498</v>
       </c>
       <c r="J8" t="n">
-        <v>21.14013649026553</v>
+        <v>22.75351810455322</v>
       </c>
     </row>
     <row r="9">
@@ -725,31 +725,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57.88474162419637</v>
+        <v>59.98828125</v>
       </c>
       <c r="C9" t="n">
-        <v>53.48839553197225</v>
+        <v>57.99245452880859</v>
       </c>
       <c r="D9" t="n">
-        <v>46.84133418401083</v>
+        <v>57.98879241943359</v>
       </c>
       <c r="E9" t="n">
-        <v>4.255610962708791</v>
+        <v>4.395717978477478</v>
       </c>
       <c r="F9" t="n">
-        <v>301.8628196716309</v>
+        <v>379.1951751708984</v>
       </c>
       <c r="G9" t="n">
-        <v>181.5654780069987</v>
+        <v>285.5572242736816</v>
       </c>
       <c r="H9" t="n">
-        <v>143.9884147644043</v>
+        <v>170.5608863830566</v>
       </c>
       <c r="I9" t="n">
-        <v>5.475386639436086</v>
+        <v>5.658952713012695</v>
       </c>
       <c r="J9" t="n">
-        <v>23.67893306414286</v>
+        <v>27.49927759170532</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/estatistica.xlsx
+++ b/Modelos em Python/estatistica.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1096</v>
+        <v>366</v>
       </c>
       <c r="C2" t="n">
-        <v>1096</v>
+        <v>366</v>
       </c>
       <c r="D2" t="n">
-        <v>1096</v>
+        <v>366</v>
       </c>
       <c r="E2" t="n">
-        <v>1096</v>
+        <v>366</v>
       </c>
       <c r="F2" t="n">
-        <v>1096</v>
+        <v>366</v>
       </c>
       <c r="G2" t="n">
-        <v>1096</v>
+        <v>366</v>
       </c>
       <c r="H2" t="n">
-        <v>1096</v>
+        <v>366</v>
       </c>
       <c r="I2" t="n">
-        <v>1096</v>
+        <v>366</v>
       </c>
       <c r="J2" t="n">
-        <v>1096</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.94644468912547</v>
+        <v>41.93208175219548</v>
       </c>
       <c r="C3" t="n">
-        <v>27.8114452154</v>
+        <v>15.78064023553419</v>
       </c>
       <c r="D3" t="n">
-        <v>6.399400297941156</v>
+        <v>6.213366625030354</v>
       </c>
       <c r="E3" t="n">
-        <v>3.235475374934991</v>
+        <v>3.607910480764177</v>
       </c>
       <c r="F3" t="n">
-        <v>112.6768209717529</v>
+        <v>203.938601407225</v>
       </c>
       <c r="G3" t="n">
-        <v>132.9437265895579</v>
+        <v>111.7568948770481</v>
       </c>
       <c r="H3" t="n">
-        <v>112.4051449467912</v>
+        <v>92.04880064014533</v>
       </c>
       <c r="I3" t="n">
-        <v>4.107763069441175</v>
+        <v>4.559932283120729</v>
       </c>
       <c r="J3" t="n">
-        <v>20.79400554271757</v>
+        <v>16.83298848841968</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.23683015900667</v>
+        <v>17.62456907440957</v>
       </c>
       <c r="C4" t="n">
-        <v>15.9763007190126</v>
+        <v>11.48719359029862</v>
       </c>
       <c r="D4" t="n">
-        <v>15.83322944661304</v>
+        <v>10.85106528397064</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6080894272308822</v>
+        <v>0.4843131955666993</v>
       </c>
       <c r="F4" t="n">
-        <v>116.2764868804748</v>
+        <v>65.82255709559804</v>
       </c>
       <c r="G4" t="n">
-        <v>41.35585398119531</v>
+        <v>32.62572916958052</v>
       </c>
       <c r="H4" t="n">
-        <v>29.97541339344741</v>
+        <v>30.56081767996156</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6794154640298505</v>
+        <v>0.5568456116006034</v>
       </c>
       <c r="J4" t="n">
-        <v>5.949494054315778</v>
+        <v>6.323931194687046</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +598,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4035571813583374</v>
+        <v>1.458839648713668</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>22.85387429315597</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.583976109822591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>10.38335466951442</v>
       </c>
       <c r="I5" t="n">
-        <v>0.885139986872673</v>
+        <v>2.59959522386392</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.830831985299786</v>
       </c>
     </row>
     <row r="6">
@@ -623,31 +623,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.63188147544861</v>
+        <v>33.59522485346921</v>
       </c>
       <c r="C6" t="n">
-        <v>21.26508140563965</v>
+        <v>6.385696351528168</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.888587400317192</v>
+        <v>3.348583160589139</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1157407388091087</v>
+        <v>176.9232137460882</v>
       </c>
       <c r="G6" t="n">
-        <v>125.3387875556946</v>
+        <v>87.52739651997884</v>
       </c>
       <c r="H6" t="n">
-        <v>113.1319599151611</v>
+        <v>73.51891450809005</v>
       </c>
       <c r="I6" t="n">
-        <v>3.724279373884201</v>
+        <v>4.224367852012317</v>
       </c>
       <c r="J6" t="n">
-        <v>22.28220093250275</v>
+        <v>13.1975341582438</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +657,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57.98879241943359</v>
+        <v>52.68957177797953</v>
       </c>
       <c r="C7" t="n">
-        <v>34.97258806228638</v>
+        <v>16.35032784938812</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.3063944876194</v>
+        <v>3.739742388327916</v>
       </c>
       <c r="F7" t="n">
-        <v>67.00130307208747</v>
+        <v>221.3267697224704</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0427274703979</v>
+        <v>122.6695812543233</v>
       </c>
       <c r="H7" t="n">
-        <v>119.1368169784546</v>
+        <v>105.6882766882579</v>
       </c>
       <c r="I7" t="n">
-        <v>4.141564667224884</v>
+        <v>4.663153638442358</v>
       </c>
       <c r="J7" t="n">
-        <v>22.50062918663025</v>
+        <v>20.1969812878718</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57.98879241943359</v>
+        <v>54.72612857818604</v>
       </c>
       <c r="C8" t="n">
-        <v>37.53117561340332</v>
+        <v>23.1066487232844</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>8.636337161064148</v>
       </c>
       <c r="E8" t="n">
-        <v>3.643114596605301</v>
+        <v>3.991529899338881</v>
       </c>
       <c r="F8" t="n">
-        <v>258.2427616119385</v>
+        <v>252.2883229725218</v>
       </c>
       <c r="G8" t="n">
-        <v>147.360050201416</v>
+        <v>132.9382044474284</v>
       </c>
       <c r="H8" t="n">
-        <v>124.7097067832947</v>
+        <v>112.0343939463298</v>
       </c>
       <c r="I8" t="n">
-        <v>4.519843012094498</v>
+        <v>5.014958746731281</v>
       </c>
       <c r="J8" t="n">
-        <v>22.75351810455322</v>
+        <v>21.11952479680379</v>
       </c>
     </row>
     <row r="9">
@@ -725,31 +725,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59.98828125</v>
+        <v>57.88474162419637</v>
       </c>
       <c r="C9" t="n">
-        <v>57.99245452880859</v>
+        <v>53.48839553197225</v>
       </c>
       <c r="D9" t="n">
-        <v>57.98879241943359</v>
+        <v>46.84133418401083</v>
       </c>
       <c r="E9" t="n">
-        <v>4.395717978477478</v>
+        <v>4.255610962708791</v>
       </c>
       <c r="F9" t="n">
-        <v>379.1951751708984</v>
+        <v>301.8628196716309</v>
       </c>
       <c r="G9" t="n">
-        <v>285.5572242736816</v>
+        <v>181.5654780069987</v>
       </c>
       <c r="H9" t="n">
-        <v>170.5608863830566</v>
+        <v>143.9884147644043</v>
       </c>
       <c r="I9" t="n">
-        <v>5.658952713012695</v>
+        <v>5.475386639436086</v>
       </c>
       <c r="J9" t="n">
-        <v>27.49927759170532</v>
+        <v>22.69398617744446</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/estatistica.xlsx
+++ b/Modelos em Python/estatistica.xlsx
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.93208175219548</v>
+        <v>46.34421652698981</v>
       </c>
       <c r="C3" t="n">
-        <v>15.78064023553419</v>
+        <v>26.03268709309562</v>
       </c>
       <c r="D3" t="n">
-        <v>6.213366625030354</v>
+        <v>10.44172485624669</v>
       </c>
       <c r="E3" t="n">
-        <v>3.607910480764177</v>
+        <v>3.576439843151739</v>
       </c>
       <c r="F3" t="n">
-        <v>203.938601407225</v>
+        <v>206.2918856971658</v>
       </c>
       <c r="G3" t="n">
-        <v>111.7568948770481</v>
+        <v>149.2955221374178</v>
       </c>
       <c r="H3" t="n">
-        <v>92.04880064014533</v>
+        <v>111.0101964662686</v>
       </c>
       <c r="I3" t="n">
-        <v>4.559932283120729</v>
+        <v>4.507072403131287</v>
       </c>
       <c r="J3" t="n">
-        <v>16.83298848841968</v>
+        <v>18.51662700554061</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.62456907440957</v>
+        <v>22.78208056358559</v>
       </c>
       <c r="C4" t="n">
-        <v>11.48719359029862</v>
+        <v>20.81185578656276</v>
       </c>
       <c r="D4" t="n">
-        <v>10.85106528397064</v>
+        <v>20.5800316218137</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4843131955666993</v>
+        <v>0.6482087321439005</v>
       </c>
       <c r="F4" t="n">
-        <v>65.82255709559804</v>
+        <v>119.5442151740226</v>
       </c>
       <c r="G4" t="n">
-        <v>32.62572916958052</v>
+        <v>80.93258868428188</v>
       </c>
       <c r="H4" t="n">
-        <v>30.56081767996156</v>
+        <v>51.23254357106502</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5568456116006034</v>
+        <v>0.7604864331858922</v>
       </c>
       <c r="J4" t="n">
-        <v>6.323931194687046</v>
+        <v>8.612180189563002</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +598,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.458839648713668</v>
+        <v>1.256451606750488</v>
       </c>
       <c r="F5" t="n">
-        <v>22.85387429315597</v>
+        <v>0.1157407388091087</v>
       </c>
       <c r="G5" t="n">
-        <v>3.583976109822591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>10.38335466951442</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2.59959522386392</v>
+        <v>2.114359378814697</v>
       </c>
       <c r="J5" t="n">
-        <v>0.830831985299786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -623,31 +623,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.59522485346921</v>
+        <v>52.19192790985107</v>
       </c>
       <c r="C6" t="n">
-        <v>6.385696351528168</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.348583160589139</v>
+        <v>3.134971797466278</v>
       </c>
       <c r="F6" t="n">
-        <v>176.9232137460882</v>
+        <v>249.2796745300293</v>
       </c>
       <c r="G6" t="n">
-        <v>87.52739651997884</v>
+        <v>137.527416229248</v>
       </c>
       <c r="H6" t="n">
-        <v>73.51891450809005</v>
+        <v>115.8355026245117</v>
       </c>
       <c r="I6" t="n">
-        <v>4.224367852012317</v>
+        <v>3.976764440536499</v>
       </c>
       <c r="J6" t="n">
-        <v>13.1975341582438</v>
+        <v>20.9780101776123</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +657,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.68957177797953</v>
+        <v>57.98879241943359</v>
       </c>
       <c r="C7" t="n">
-        <v>16.35032784938812</v>
+        <v>36.03322410583496</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.739742388327916</v>
+        <v>3.704052925109863</v>
       </c>
       <c r="F7" t="n">
-        <v>221.3267697224704</v>
+        <v>266.3691253662109</v>
       </c>
       <c r="G7" t="n">
-        <v>122.6695812543233</v>
+        <v>155.25634765625</v>
       </c>
       <c r="H7" t="n">
-        <v>105.6882766882579</v>
+        <v>126.4286308288574</v>
       </c>
       <c r="I7" t="n">
-        <v>4.663153638442358</v>
+        <v>4.565409660339355</v>
       </c>
       <c r="J7" t="n">
-        <v>20.1969812878718</v>
+        <v>22.97453689575195</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.72612857818604</v>
+        <v>57.98879241943359</v>
       </c>
       <c r="C8" t="n">
-        <v>23.1066487232844</v>
+        <v>40.64420700073242</v>
       </c>
       <c r="D8" t="n">
-        <v>8.636337161064148</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.991529899338881</v>
+        <v>4.094141364097595</v>
       </c>
       <c r="F8" t="n">
-        <v>252.2883229725218</v>
+        <v>278.3754272460938</v>
       </c>
       <c r="G8" t="n">
-        <v>132.9382044474284</v>
+        <v>170.7848014831543</v>
       </c>
       <c r="H8" t="n">
-        <v>112.0343939463298</v>
+        <v>133.9638481140137</v>
       </c>
       <c r="I8" t="n">
-        <v>5.014958746731281</v>
+        <v>5.050556778907776</v>
       </c>
       <c r="J8" t="n">
-        <v>21.11952479680379</v>
+        <v>23.046875</v>
       </c>
     </row>
     <row r="9">
@@ -725,31 +725,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57.88474162419637</v>
+        <v>59.98828125</v>
       </c>
       <c r="C9" t="n">
-        <v>53.48839553197225</v>
+        <v>59.991943359375</v>
       </c>
       <c r="D9" t="n">
-        <v>46.84133418401083</v>
+        <v>59.98828125</v>
       </c>
       <c r="E9" t="n">
-        <v>4.255610962708791</v>
+        <v>4.404913902282715</v>
       </c>
       <c r="F9" t="n">
-        <v>301.8628196716309</v>
+        <v>383.870361328125</v>
       </c>
       <c r="G9" t="n">
-        <v>181.5654780069987</v>
+        <v>326.1712951660156</v>
       </c>
       <c r="H9" t="n">
-        <v>143.9884147644043</v>
+        <v>194.3518524169922</v>
       </c>
       <c r="I9" t="n">
-        <v>5.475386639436086</v>
+        <v>5.682764530181885</v>
       </c>
       <c r="J9" t="n">
-        <v>22.69398617744446</v>
+        <v>27.00418281555176</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/estatistica.xlsx
+++ b/Modelos em Python/estatistica.xlsx
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.34421652698981</v>
+        <v>41.93208175219548</v>
       </c>
       <c r="C3" t="n">
-        <v>26.03268709309562</v>
+        <v>15.78064023553419</v>
       </c>
       <c r="D3" t="n">
-        <v>10.44172485624669</v>
+        <v>6.213366625030354</v>
       </c>
       <c r="E3" t="n">
-        <v>3.576439843151739</v>
+        <v>3.607910480764177</v>
       </c>
       <c r="F3" t="n">
-        <v>206.2918856971658</v>
+        <v>203.938601407225</v>
       </c>
       <c r="G3" t="n">
-        <v>149.2955221374178</v>
+        <v>111.7568948770481</v>
       </c>
       <c r="H3" t="n">
-        <v>111.0101964662686</v>
+        <v>92.04880064014533</v>
       </c>
       <c r="I3" t="n">
-        <v>4.507072403131287</v>
+        <v>4.559932283120729</v>
       </c>
       <c r="J3" t="n">
-        <v>18.51662700554061</v>
+        <v>16.83298848841968</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.78208056358559</v>
+        <v>17.62456907440957</v>
       </c>
       <c r="C4" t="n">
-        <v>20.81185578656276</v>
+        <v>11.48719359029862</v>
       </c>
       <c r="D4" t="n">
-        <v>20.5800316218137</v>
+        <v>10.85106528397064</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6482087321439005</v>
+        <v>0.4843131955666993</v>
       </c>
       <c r="F4" t="n">
-        <v>119.5442151740226</v>
+        <v>65.82255709559804</v>
       </c>
       <c r="G4" t="n">
-        <v>80.93258868428188</v>
+        <v>32.62572916958052</v>
       </c>
       <c r="H4" t="n">
-        <v>51.23254357106502</v>
+        <v>30.56081767996156</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7604864331858922</v>
+        <v>0.5568456116006034</v>
       </c>
       <c r="J4" t="n">
-        <v>8.612180189563002</v>
+        <v>6.323931194687046</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +598,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.256451606750488</v>
+        <v>1.458839648713668</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1157407388091087</v>
+        <v>22.85387429315597</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.583976109822591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>10.38335466951442</v>
       </c>
       <c r="I5" t="n">
-        <v>2.114359378814697</v>
+        <v>2.59959522386392</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.830831985299786</v>
       </c>
     </row>
     <row r="6">
@@ -623,31 +623,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.19192790985107</v>
+        <v>33.59522485346921</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>6.385696351528168</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.134971797466278</v>
+        <v>3.348583160589139</v>
       </c>
       <c r="F6" t="n">
-        <v>249.2796745300293</v>
+        <v>176.9232137460882</v>
       </c>
       <c r="G6" t="n">
-        <v>137.527416229248</v>
+        <v>87.52739651997884</v>
       </c>
       <c r="H6" t="n">
-        <v>115.8355026245117</v>
+        <v>73.51891450809005</v>
       </c>
       <c r="I6" t="n">
-        <v>3.976764440536499</v>
+        <v>4.224367852012317</v>
       </c>
       <c r="J6" t="n">
-        <v>20.9780101776123</v>
+        <v>13.1975341582438</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +657,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57.98879241943359</v>
+        <v>52.68957177797953</v>
       </c>
       <c r="C7" t="n">
-        <v>36.03322410583496</v>
+        <v>16.35032784938812</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.704052925109863</v>
+        <v>3.739742388327916</v>
       </c>
       <c r="F7" t="n">
-        <v>266.3691253662109</v>
+        <v>221.3267697224704</v>
       </c>
       <c r="G7" t="n">
-        <v>155.25634765625</v>
+        <v>122.6695812543233</v>
       </c>
       <c r="H7" t="n">
-        <v>126.4286308288574</v>
+        <v>105.6882766882579</v>
       </c>
       <c r="I7" t="n">
-        <v>4.565409660339355</v>
+        <v>4.663153638442358</v>
       </c>
       <c r="J7" t="n">
-        <v>22.97453689575195</v>
+        <v>20.1969812878718</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57.98879241943359</v>
+        <v>54.72612857818604</v>
       </c>
       <c r="C8" t="n">
-        <v>40.64420700073242</v>
+        <v>23.1066487232844</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>8.636337161064148</v>
       </c>
       <c r="E8" t="n">
-        <v>4.094141364097595</v>
+        <v>3.991529899338881</v>
       </c>
       <c r="F8" t="n">
-        <v>278.3754272460938</v>
+        <v>252.2883229725218</v>
       </c>
       <c r="G8" t="n">
-        <v>170.7848014831543</v>
+        <v>132.9382044474284</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9638481140137</v>
+        <v>112.0343939463298</v>
       </c>
       <c r="I8" t="n">
-        <v>5.050556778907776</v>
+        <v>5.014958746731281</v>
       </c>
       <c r="J8" t="n">
-        <v>23.046875</v>
+        <v>21.11952479680379</v>
       </c>
     </row>
     <row r="9">
@@ -725,31 +725,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59.98828125</v>
+        <v>57.88474162419637</v>
       </c>
       <c r="C9" t="n">
-        <v>59.991943359375</v>
+        <v>53.48839553197225</v>
       </c>
       <c r="D9" t="n">
-        <v>59.98828125</v>
+        <v>46.84133418401083</v>
       </c>
       <c r="E9" t="n">
-        <v>4.404913902282715</v>
+        <v>4.255610962708791</v>
       </c>
       <c r="F9" t="n">
-        <v>383.870361328125</v>
+        <v>301.8628196716309</v>
       </c>
       <c r="G9" t="n">
-        <v>326.1712951660156</v>
+        <v>181.5654780069987</v>
       </c>
       <c r="H9" t="n">
-        <v>194.3518524169922</v>
+        <v>143.9884147644043</v>
       </c>
       <c r="I9" t="n">
-        <v>5.682764530181885</v>
+        <v>5.475386639436086</v>
       </c>
       <c r="J9" t="n">
-        <v>27.00418281555176</v>
+        <v>22.69398617744446</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/estatistica.xlsx
+++ b/Modelos em Python/estatistica.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>366</v>
+        <v>1096</v>
       </c>
       <c r="C2" t="n">
-        <v>366</v>
+        <v>1096</v>
       </c>
       <c r="D2" t="n">
-        <v>366</v>
+        <v>1096</v>
       </c>
       <c r="E2" t="n">
-        <v>366</v>
+        <v>1096</v>
       </c>
       <c r="F2" t="n">
-        <v>366</v>
+        <v>1096</v>
       </c>
       <c r="G2" t="n">
-        <v>366</v>
+        <v>1096</v>
       </c>
       <c r="H2" t="n">
-        <v>366</v>
+        <v>1096</v>
       </c>
       <c r="I2" t="n">
-        <v>366</v>
+        <v>1096</v>
       </c>
       <c r="J2" t="n">
-        <v>366</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.93208175219548</v>
+        <v>48.83049662563609</v>
       </c>
       <c r="C3" t="n">
-        <v>15.78064023553419</v>
+        <v>17.5380553201287</v>
       </c>
       <c r="D3" t="n">
-        <v>6.213366625030354</v>
+        <v>4.298656732949123</v>
       </c>
       <c r="E3" t="n">
-        <v>3.607910480764177</v>
+        <v>3.544512409073705</v>
       </c>
       <c r="F3" t="n">
-        <v>203.938601407225</v>
+        <v>211.7706161360047</v>
       </c>
       <c r="G3" t="n">
-        <v>111.7568948770481</v>
+        <v>113.8049856985188</v>
       </c>
       <c r="H3" t="n">
-        <v>92.04880064014533</v>
+        <v>100.1386116027244</v>
       </c>
       <c r="I3" t="n">
-        <v>4.559932283120729</v>
+        <v>4.485224716262816</v>
       </c>
       <c r="J3" t="n">
-        <v>16.83298848841968</v>
+        <v>19.42430642751307</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.62456907440957</v>
+        <v>12.35403758424622</v>
       </c>
       <c r="C4" t="n">
-        <v>11.48719359029862</v>
+        <v>9.281922928687262</v>
       </c>
       <c r="D4" t="n">
-        <v>10.85106528397064</v>
+        <v>8.975660293398585</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4843131955666993</v>
+        <v>0.437641826314247</v>
       </c>
       <c r="F4" t="n">
-        <v>65.82255709559804</v>
+        <v>44.49607763603351</v>
       </c>
       <c r="G4" t="n">
-        <v>32.62572916958052</v>
+        <v>21.48590267252139</v>
       </c>
       <c r="H4" t="n">
-        <v>30.56081767996156</v>
+        <v>19.82171448410822</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5568456116006034</v>
+        <v>0.4868946259204839</v>
       </c>
       <c r="J4" t="n">
-        <v>6.323931194687046</v>
+        <v>4.323327372063621</v>
       </c>
     </row>
     <row r="5">
@@ -610,7 +610,7 @@
         <v>10.38335466951442</v>
       </c>
       <c r="I5" t="n">
-        <v>2.59959522386392</v>
+        <v>1.924964961906274</v>
       </c>
       <c r="J5" t="n">
         <v>0.830831985299786</v>
@@ -623,31 +623,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.59522485346921</v>
+        <v>50.49129815896352</v>
       </c>
       <c r="C6" t="n">
-        <v>6.385696351528168</v>
+        <v>13.28893739627771</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.348583160589139</v>
+        <v>3.34512352074186</v>
       </c>
       <c r="F6" t="n">
-        <v>176.9232137460882</v>
+        <v>195.9441181818644</v>
       </c>
       <c r="G6" t="n">
-        <v>87.52739651997884</v>
+        <v>105.0956687927246</v>
       </c>
       <c r="H6" t="n">
-        <v>73.51891450809005</v>
+        <v>99.23874223232269</v>
       </c>
       <c r="I6" t="n">
-        <v>4.224367852012317</v>
+        <v>4.244901262223721</v>
       </c>
       <c r="J6" t="n">
-        <v>13.1975341582438</v>
+        <v>19.80549195408821</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +657,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.68957177797953</v>
+        <v>54.20352204640706</v>
       </c>
       <c r="C7" t="n">
-        <v>16.35032784938812</v>
+        <v>19.96455399195353</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.739742388327916</v>
+        <v>3.644086455305417</v>
       </c>
       <c r="F7" t="n">
-        <v>221.3267697224704</v>
+        <v>215.7909027497905</v>
       </c>
       <c r="G7" t="n">
-        <v>122.6695812543233</v>
+        <v>115.73304160436</v>
       </c>
       <c r="H7" t="n">
-        <v>105.6882766882579</v>
+        <v>104.8455746173859</v>
       </c>
       <c r="I7" t="n">
-        <v>4.663153638442358</v>
+        <v>4.570759559671083</v>
       </c>
       <c r="J7" t="n">
-        <v>20.1969812878718</v>
+        <v>21.0151140888532</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.72612857818604</v>
+        <v>54.81836120287578</v>
       </c>
       <c r="C8" t="n">
-        <v>23.1066487232844</v>
+        <v>22.79150666793187</v>
       </c>
       <c r="D8" t="n">
-        <v>8.636337161064148</v>
+        <v>2.375865578651428</v>
       </c>
       <c r="E8" t="n">
-        <v>3.991529899338881</v>
+        <v>3.842757031011085</v>
       </c>
       <c r="F8" t="n">
-        <v>252.2883229725218</v>
+        <v>238.325010770311</v>
       </c>
       <c r="G8" t="n">
-        <v>132.9382044474284</v>
+        <v>126.2463799715042</v>
       </c>
       <c r="H8" t="n">
-        <v>112.0343939463298</v>
+        <v>110.005658864975</v>
       </c>
       <c r="I8" t="n">
-        <v>5.014958746731281</v>
+        <v>4.813108007113139</v>
       </c>
       <c r="J8" t="n">
-        <v>21.11952479680379</v>
+        <v>21.14013649026553</v>
       </c>
     </row>
     <row r="9">
@@ -749,7 +749,7 @@
         <v>5.475386639436086</v>
       </c>
       <c r="J9" t="n">
-        <v>22.69398617744446</v>
+        <v>23.67893306414286</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/estatistica.xlsx
+++ b/Modelos em Python/estatistica.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>FT01</t>
+          <t>VAZÃO DE ENTRADA - FT01</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">

--- a/Modelos em Python/estatistica.xlsx
+++ b/Modelos em Python/estatistica.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>VAZÃO DE ENTRADA - FT01</t>
+          <t>FT01</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1096</v>
+        <v>26306</v>
       </c>
       <c r="C2" t="n">
-        <v>1096</v>
+        <v>26306</v>
       </c>
       <c r="D2" t="n">
-        <v>1096</v>
+        <v>26306</v>
       </c>
       <c r="E2" t="n">
-        <v>1096</v>
+        <v>26306</v>
       </c>
       <c r="F2" t="n">
-        <v>1096</v>
+        <v>26306</v>
       </c>
       <c r="G2" t="n">
-        <v>1096</v>
+        <v>26306</v>
       </c>
       <c r="H2" t="n">
-        <v>1096</v>
+        <v>26306</v>
       </c>
       <c r="I2" t="n">
-        <v>1096</v>
+        <v>26306</v>
       </c>
       <c r="J2" t="n">
-        <v>1096</v>
+        <v>26306</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.83049662563609</v>
+        <v>48.83061991862249</v>
       </c>
       <c r="C3" t="n">
-        <v>17.5380553201287</v>
+        <v>17.53927513316042</v>
       </c>
       <c r="D3" t="n">
-        <v>4.298656732949123</v>
+        <v>4.298137453816292</v>
       </c>
       <c r="E3" t="n">
-        <v>3.544512409073705</v>
+        <v>3.544518629666074</v>
       </c>
       <c r="F3" t="n">
-        <v>211.7706161360047</v>
+        <v>211.7717010575029</v>
       </c>
       <c r="G3" t="n">
-        <v>113.8049856985188</v>
+        <v>113.8049494867804</v>
       </c>
       <c r="H3" t="n">
-        <v>100.1386116027244</v>
+        <v>100.1393936180642</v>
       </c>
       <c r="I3" t="n">
-        <v>4.485224716262816</v>
+        <v>4.485228223580149</v>
       </c>
       <c r="J3" t="n">
-        <v>19.42430642751307</v>
+        <v>19.42457632106393</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.35403758424622</v>
+        <v>17.04037600821599</v>
       </c>
       <c r="C4" t="n">
-        <v>9.281922928687262</v>
+        <v>19.98079055407836</v>
       </c>
       <c r="D4" t="n">
-        <v>8.975660293398585</v>
+        <v>14.12211707014684</v>
       </c>
       <c r="E4" t="n">
-        <v>0.437641826314247</v>
+        <v>0.6682245607995934</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49607763603351</v>
+        <v>114.0380915254711</v>
       </c>
       <c r="G4" t="n">
-        <v>21.48590267252139</v>
+        <v>52.96025213626056</v>
       </c>
       <c r="H4" t="n">
-        <v>19.82171448410822</v>
+        <v>35.51866064597155</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4868946259204839</v>
+        <v>0.7214334411686997</v>
       </c>
       <c r="J4" t="n">
-        <v>4.323327372063621</v>
+        <v>6.006750464050488</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +598,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.458839648713668</v>
+        <v>0.2588306367397308</v>
       </c>
       <c r="F5" t="n">
-        <v>22.85387429315597</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.583976109822591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>10.38335466951442</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1.924964961906274</v>
+        <v>0.6289595365524292</v>
       </c>
       <c r="J5" t="n">
-        <v>0.830831985299786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -623,31 +623,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.49129815896352</v>
+        <v>47.11793899536133</v>
       </c>
       <c r="C6" t="n">
-        <v>13.28893739627771</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.34512352074186</v>
+        <v>3.121125757694244</v>
       </c>
       <c r="F6" t="n">
-        <v>195.9441181818644</v>
+        <v>254.2919883728027</v>
       </c>
       <c r="G6" t="n">
-        <v>105.0956687927246</v>
+        <v>72.32748985290527</v>
       </c>
       <c r="H6" t="n">
-        <v>99.23874223232269</v>
+        <v>77.63602638244629</v>
       </c>
       <c r="I6" t="n">
-        <v>4.244901262223721</v>
+        <v>4.032004117965698</v>
       </c>
       <c r="J6" t="n">
-        <v>19.80549195408821</v>
+        <v>17.96875</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +657,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.20352204640706</v>
+        <v>57.76191902160645</v>
       </c>
       <c r="C7" t="n">
-        <v>19.96455399195353</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.644086455305417</v>
+        <v>3.739835500717163</v>
       </c>
       <c r="F7" t="n">
-        <v>215.7909027497905</v>
+        <v>265.5722045898438</v>
       </c>
       <c r="G7" t="n">
-        <v>115.73304160436</v>
+        <v>122.3100204467773</v>
       </c>
       <c r="H7" t="n">
-        <v>104.8455746173859</v>
+        <v>109.0313835144043</v>
       </c>
       <c r="I7" t="n">
-        <v>4.570759559671083</v>
+        <v>4.622991561889648</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0151140888532</v>
+        <v>20.99247741699219</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.81836120287578</v>
+        <v>57.98879241943359</v>
       </c>
       <c r="C8" t="n">
-        <v>22.79150666793187</v>
+        <v>36.87396430969238</v>
       </c>
       <c r="D8" t="n">
-        <v>2.375865578651428</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.842757031011085</v>
+        <v>4.071128845214844</v>
       </c>
       <c r="F8" t="n">
-        <v>238.325010770311</v>
+        <v>273.7369689941406</v>
       </c>
       <c r="G8" t="n">
-        <v>126.2463799715042</v>
+        <v>150.3854637145996</v>
       </c>
       <c r="H8" t="n">
-        <v>110.005658864975</v>
+        <v>124.6227264404297</v>
       </c>
       <c r="I8" t="n">
-        <v>4.813108007113139</v>
+        <v>5.03083860874176</v>
       </c>
       <c r="J8" t="n">
-        <v>21.14013649026553</v>
+        <v>23.03507137298584</v>
       </c>
     </row>
     <row r="9">
@@ -725,31 +725,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57.88474162419637</v>
+        <v>59.98828125</v>
       </c>
       <c r="C9" t="n">
-        <v>53.48839553197225</v>
+        <v>59.991943359375</v>
       </c>
       <c r="D9" t="n">
-        <v>46.84133418401083</v>
+        <v>59.98828125</v>
       </c>
       <c r="E9" t="n">
-        <v>4.255610962708791</v>
+        <v>4.457386493682861</v>
       </c>
       <c r="F9" t="n">
-        <v>301.8628196716309</v>
+        <v>390.682861328125</v>
       </c>
       <c r="G9" t="n">
-        <v>181.5654780069987</v>
+        <v>442.8578491210938</v>
       </c>
       <c r="H9" t="n">
-        <v>143.9884147644043</v>
+        <v>199.5949096679688</v>
       </c>
       <c r="I9" t="n">
-        <v>5.475386639436086</v>
+        <v>5.722994804382324</v>
       </c>
       <c r="J9" t="n">
-        <v>23.67893306414286</v>
+        <v>29.00752449035645</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/estatistica.xlsx
+++ b/Modelos em Python/estatistica.xlsx
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.83049662563609</v>
+        <v>51.94982124178383</v>
       </c>
       <c r="C3" t="n">
-        <v>17.5380553201287</v>
+        <v>27.81144272984281</v>
       </c>
       <c r="D3" t="n">
-        <v>4.298656732949123</v>
+        <v>6.399400297941156</v>
       </c>
       <c r="E3" t="n">
-        <v>3.544512409073705</v>
+        <v>3.235329313154747</v>
       </c>
       <c r="F3" t="n">
-        <v>211.7706161360047</v>
+        <v>112.6977645852489</v>
       </c>
       <c r="G3" t="n">
-        <v>113.8049856985188</v>
+        <v>132.9339586769577</v>
       </c>
       <c r="H3" t="n">
-        <v>100.1386116027244</v>
+        <v>112.409014783139</v>
       </c>
       <c r="I3" t="n">
-        <v>4.485224716262816</v>
+        <v>4.107590442017591</v>
       </c>
       <c r="J3" t="n">
-        <v>19.42430642751307</v>
+        <v>20.79569084395378</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.35403758424622</v>
+        <v>16.23774474937288</v>
       </c>
       <c r="C4" t="n">
-        <v>9.281922928687262</v>
+        <v>15.97635831808784</v>
       </c>
       <c r="D4" t="n">
-        <v>8.975660293398585</v>
+        <v>15.83322944661304</v>
       </c>
       <c r="E4" t="n">
-        <v>0.437641826314247</v>
+        <v>0.6085354802490358</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49607763603351</v>
+        <v>116.2437854774639</v>
       </c>
       <c r="G4" t="n">
-        <v>21.48590267252139</v>
+        <v>41.35438445529572</v>
       </c>
       <c r="H4" t="n">
-        <v>19.82171448410822</v>
+        <v>29.97672726259211</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4868946259204839</v>
+        <v>0.6798794975873375</v>
       </c>
       <c r="J4" t="n">
-        <v>4.323327372063621</v>
+        <v>5.949722701510993</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +598,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.458839648713668</v>
+        <v>0.4035571813583374</v>
       </c>
       <c r="F5" t="n">
-        <v>22.85387429315597</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.583976109822591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>10.38335466951442</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1.924964961906274</v>
+        <v>0.885139986872673</v>
       </c>
       <c r="J5" t="n">
-        <v>0.830831985299786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -623,31 +623,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.49129815896352</v>
+        <v>57.64190196990967</v>
       </c>
       <c r="C6" t="n">
-        <v>13.28893739627771</v>
+        <v>21.26508140563965</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.34512352074186</v>
+        <v>2.888587400317192</v>
       </c>
       <c r="F6" t="n">
-        <v>195.9441181818644</v>
+        <v>0.1157407388091087</v>
       </c>
       <c r="G6" t="n">
-        <v>105.0956687927246</v>
+        <v>125.3387875556946</v>
       </c>
       <c r="H6" t="n">
-        <v>99.23874223232269</v>
+        <v>113.1319599151611</v>
       </c>
       <c r="I6" t="n">
-        <v>4.244901262223721</v>
+        <v>3.724279373884201</v>
       </c>
       <c r="J6" t="n">
-        <v>19.80549195408821</v>
+        <v>22.30118715763092</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +657,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.20352204640706</v>
+        <v>57.98879241943359</v>
       </c>
       <c r="C7" t="n">
-        <v>19.96455399195353</v>
+        <v>34.97258806228638</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.644086455305417</v>
+        <v>3.3063944876194</v>
       </c>
       <c r="F7" t="n">
-        <v>215.7909027497905</v>
+        <v>67.00130307208747</v>
       </c>
       <c r="G7" t="n">
-        <v>115.73304160436</v>
+        <v>136.0427274703979</v>
       </c>
       <c r="H7" t="n">
-        <v>104.8455746173859</v>
+        <v>119.1466341018677</v>
       </c>
       <c r="I7" t="n">
-        <v>4.570759559671083</v>
+        <v>4.141564667224884</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0151140888532</v>
+        <v>22.5006992816925</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.81836120287578</v>
+        <v>57.98879241943359</v>
       </c>
       <c r="C8" t="n">
-        <v>22.79150666793187</v>
+        <v>37.53117561340332</v>
       </c>
       <c r="D8" t="n">
-        <v>2.375865578651428</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.842757031011085</v>
+        <v>3.643114596605301</v>
       </c>
       <c r="F8" t="n">
-        <v>238.325010770311</v>
+        <v>258.2427616119385</v>
       </c>
       <c r="G8" t="n">
-        <v>126.2463799715042</v>
+        <v>147.360050201416</v>
       </c>
       <c r="H8" t="n">
-        <v>110.005658864975</v>
+        <v>124.7097067832947</v>
       </c>
       <c r="I8" t="n">
-        <v>4.813108007113139</v>
+        <v>4.519843012094498</v>
       </c>
       <c r="J8" t="n">
-        <v>21.14013649026553</v>
+        <v>22.75351810455322</v>
       </c>
     </row>
     <row r="9">
@@ -725,31 +725,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57.88474162419637</v>
+        <v>59.98828125</v>
       </c>
       <c r="C9" t="n">
-        <v>53.48839553197225</v>
+        <v>57.99245452880859</v>
       </c>
       <c r="D9" t="n">
-        <v>46.84133418401083</v>
+        <v>57.98879241943359</v>
       </c>
       <c r="E9" t="n">
-        <v>4.255610962708791</v>
+        <v>4.395717978477478</v>
       </c>
       <c r="F9" t="n">
-        <v>301.8628196716309</v>
+        <v>379.1951751708984</v>
       </c>
       <c r="G9" t="n">
-        <v>181.5654780069987</v>
+        <v>285.5572242736816</v>
       </c>
       <c r="H9" t="n">
-        <v>143.9884147644043</v>
+        <v>170.5608863830566</v>
       </c>
       <c r="I9" t="n">
-        <v>5.475386639436086</v>
+        <v>5.658952713012695</v>
       </c>
       <c r="J9" t="n">
-        <v>23.67893306414286</v>
+        <v>27.49927759170532</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/estatistica.xlsx
+++ b/Modelos em Python/estatistica.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1096</v>
+        <v>17522</v>
       </c>
       <c r="C2" t="n">
-        <v>1096</v>
+        <v>17522</v>
       </c>
       <c r="D2" t="n">
-        <v>1096</v>
+        <v>17522</v>
       </c>
       <c r="E2" t="n">
-        <v>1096</v>
+        <v>17522</v>
       </c>
       <c r="F2" t="n">
-        <v>1096</v>
+        <v>17522</v>
       </c>
       <c r="G2" t="n">
-        <v>1096</v>
+        <v>17522</v>
       </c>
       <c r="H2" t="n">
-        <v>1096</v>
+        <v>17522</v>
       </c>
       <c r="I2" t="n">
-        <v>1096</v>
+        <v>17522</v>
       </c>
       <c r="J2" t="n">
-        <v>1096</v>
+        <v>17522</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.94982124178383</v>
+        <v>52.2889442682341</v>
       </c>
       <c r="C3" t="n">
-        <v>27.81144272984281</v>
+        <v>18.42090102864888</v>
       </c>
       <c r="D3" t="n">
-        <v>6.399400297941156</v>
+        <v>3.338008870324434</v>
       </c>
       <c r="E3" t="n">
-        <v>3.235329313154747</v>
+        <v>3.512739493720078</v>
       </c>
       <c r="F3" t="n">
-        <v>112.6977645852489</v>
+        <v>215.6985328876617</v>
       </c>
       <c r="G3" t="n">
-        <v>132.9339586769577</v>
+        <v>114.8316651409231</v>
       </c>
       <c r="H3" t="n">
-        <v>112.409014783139</v>
+        <v>104.1953101069376</v>
       </c>
       <c r="I3" t="n">
-        <v>4.107590442017591</v>
+        <v>4.447778134606034</v>
       </c>
       <c r="J3" t="n">
-        <v>20.79569084395378</v>
+        <v>20.72377204769029</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.23774474937288</v>
+        <v>11.42144081587563</v>
       </c>
       <c r="C4" t="n">
-        <v>15.97635831808784</v>
+        <v>19.74156980988511</v>
       </c>
       <c r="D4" t="n">
-        <v>15.83322944661304</v>
+        <v>12.62354146954893</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6085354802490358</v>
+        <v>0.6699863638942886</v>
       </c>
       <c r="F4" t="n">
-        <v>116.2437854774639</v>
+        <v>110.2233219973648</v>
       </c>
       <c r="G4" t="n">
-        <v>41.35438445529572</v>
+        <v>43.60413833137618</v>
       </c>
       <c r="H4" t="n">
-        <v>29.97672726259211</v>
+        <v>25.63609620419062</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6798794975873375</v>
+        <v>0.6998147768900083</v>
       </c>
       <c r="J4" t="n">
-        <v>5.949722701510993</v>
+        <v>3.610445492849492</v>
       </c>
     </row>
     <row r="5">
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4035571813583374</v>
+        <v>0.2940758466720581</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.885139986872673</v>
+        <v>0.8419158458709717</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -623,31 +623,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.64190196990967</v>
+        <v>49.51926422119141</v>
       </c>
       <c r="C6" t="n">
-        <v>21.26508140563965</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.888587400317192</v>
+        <v>3.077391862869263</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1157407388091087</v>
+        <v>255.4536170959473</v>
       </c>
       <c r="G6" t="n">
-        <v>125.3387875556946</v>
+        <v>74.9120922088623</v>
       </c>
       <c r="H6" t="n">
-        <v>113.1319599151611</v>
+        <v>81.42995071411133</v>
       </c>
       <c r="I6" t="n">
-        <v>3.724279373884201</v>
+        <v>4.015279650688171</v>
       </c>
       <c r="J6" t="n">
-        <v>22.30118715763092</v>
+        <v>18.07215547561646</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +657,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57.98879241943359</v>
+        <v>57.92523002624512</v>
       </c>
       <c r="C7" t="n">
-        <v>34.97258806228638</v>
+        <v>0.05020635202527046</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.3063944876194</v>
+        <v>3.714757680892944</v>
       </c>
       <c r="F7" t="n">
-        <v>67.00130307208747</v>
+        <v>265.3572387695312</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0427274703979</v>
+        <v>122.1488876342773</v>
       </c>
       <c r="H7" t="n">
-        <v>119.1466341018677</v>
+        <v>109.9109077453613</v>
       </c>
       <c r="I7" t="n">
-        <v>4.141564667224884</v>
+        <v>4.601657152175903</v>
       </c>
       <c r="J7" t="n">
-        <v>22.5006992816925</v>
+        <v>21.79087257385254</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +694,28 @@
         <v>57.98879241943359</v>
       </c>
       <c r="C8" t="n">
-        <v>37.53117561340332</v>
+        <v>36.79648017883301</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.643114596605301</v>
+        <v>4.047408699989319</v>
       </c>
       <c r="F8" t="n">
-        <v>258.2427616119385</v>
+        <v>272.6088485717773</v>
       </c>
       <c r="G8" t="n">
-        <v>147.360050201416</v>
+        <v>145.8645629882812</v>
       </c>
       <c r="H8" t="n">
-        <v>124.7097067832947</v>
+        <v>123.1894493103027</v>
       </c>
       <c r="I8" t="n">
-        <v>4.519843012094498</v>
+        <v>4.989501476287842</v>
       </c>
       <c r="J8" t="n">
-        <v>22.75351810455322</v>
+        <v>23.05127859115601</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +728,28 @@
         <v>59.98828125</v>
       </c>
       <c r="C9" t="n">
-        <v>57.99245452880859</v>
+        <v>59.991943359375</v>
       </c>
       <c r="D9" t="n">
-        <v>57.98879241943359</v>
+        <v>59.98828125</v>
       </c>
       <c r="E9" t="n">
-        <v>4.395717978477478</v>
+        <v>4.445140838623047</v>
       </c>
       <c r="F9" t="n">
-        <v>379.1951751708984</v>
+        <v>390.682861328125</v>
       </c>
       <c r="G9" t="n">
-        <v>285.5572242736816</v>
+        <v>400.4150390625</v>
       </c>
       <c r="H9" t="n">
-        <v>170.5608863830566</v>
+        <v>183.8998870849609</v>
       </c>
       <c r="I9" t="n">
-        <v>5.658952713012695</v>
+        <v>5.638784885406494</v>
       </c>
       <c r="J9" t="n">
-        <v>27.49927759170532</v>
+        <v>29.00752449035645</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/estatistica.xlsx
+++ b/Modelos em Python/estatistica.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17522</v>
+        <v>2921</v>
       </c>
       <c r="C2" t="n">
-        <v>17522</v>
+        <v>2921</v>
       </c>
       <c r="D2" t="n">
-        <v>17522</v>
+        <v>2921</v>
       </c>
       <c r="E2" t="n">
-        <v>17522</v>
+        <v>2921</v>
       </c>
       <c r="F2" t="n">
-        <v>17522</v>
+        <v>2921</v>
       </c>
       <c r="G2" t="n">
-        <v>17522</v>
+        <v>2921</v>
       </c>
       <c r="H2" t="n">
-        <v>17522</v>
+        <v>2921</v>
       </c>
       <c r="I2" t="n">
-        <v>17522</v>
+        <v>2921</v>
       </c>
       <c r="J2" t="n">
-        <v>17522</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.2889442682341</v>
+        <v>55.9829023416648</v>
       </c>
       <c r="C3" t="n">
-        <v>18.42090102864888</v>
+        <v>30.59513689228502</v>
       </c>
       <c r="D3" t="n">
-        <v>3.338008870324434</v>
+        <v>5.258313235794789</v>
       </c>
       <c r="E3" t="n">
-        <v>3.512739493720078</v>
+        <v>3.181964410612413</v>
       </c>
       <c r="F3" t="n">
-        <v>215.6985328876617</v>
+        <v>86.51858145263567</v>
       </c>
       <c r="G3" t="n">
-        <v>114.8316651409231</v>
+        <v>132.8740031618812</v>
       </c>
       <c r="H3" t="n">
-        <v>104.1953101069376</v>
+        <v>117.6185275191509</v>
       </c>
       <c r="I3" t="n">
-        <v>4.447778134606034</v>
+        <v>4.044488993767637</v>
       </c>
       <c r="J3" t="n">
-        <v>20.72377204769029</v>
+        <v>22.55156677257103</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.42144081587563</v>
+        <v>10.00028146120995</v>
       </c>
       <c r="C4" t="n">
-        <v>19.74156980988511</v>
+        <v>15.62722029979827</v>
       </c>
       <c r="D4" t="n">
-        <v>12.62354146954893</v>
+        <v>15.56814423624786</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6699863638942886</v>
+        <v>0.6747141615253328</v>
       </c>
       <c r="F4" t="n">
-        <v>110.2233219973648</v>
+        <v>124.4076310521603</v>
       </c>
       <c r="G4" t="n">
-        <v>43.60413833137618</v>
+        <v>18.48153044664504</v>
       </c>
       <c r="H4" t="n">
-        <v>25.63609620419062</v>
+        <v>12.82808227592323</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6998147768900083</v>
+        <v>0.7062019882616415</v>
       </c>
       <c r="J4" t="n">
-        <v>3.610445492849492</v>
+        <v>2.916551106383785</v>
       </c>
     </row>
     <row r="5">
@@ -607,10 +607,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.02893518470227718</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8419158458709717</v>
+        <v>0.8775122165679932</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -623,31 +623,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.51926422119141</v>
+        <v>57.98879241943359</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>31.63124847412109</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.077391862869263</v>
+        <v>2.768741130828857</v>
       </c>
       <c r="F6" t="n">
-        <v>255.4536170959473</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>74.9120922088623</v>
+        <v>123.4008178710938</v>
       </c>
       <c r="H6" t="n">
-        <v>81.42995071411133</v>
+        <v>112.5192947387695</v>
       </c>
       <c r="I6" t="n">
-        <v>4.015279650688171</v>
+        <v>3.606250047683716</v>
       </c>
       <c r="J6" t="n">
-        <v>18.07215547561646</v>
+        <v>21.97627258300781</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +657,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57.92523002624512</v>
+        <v>57.98879241943359</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05020635202527046</v>
+        <v>35.20267868041992</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.714757680892944</v>
+        <v>3.23967981338501</v>
       </c>
       <c r="F7" t="n">
-        <v>265.3572387695312</v>
+        <v>0.1157407388091087</v>
       </c>
       <c r="G7" t="n">
-        <v>122.1488876342773</v>
+        <v>132.8843841552734</v>
       </c>
       <c r="H7" t="n">
-        <v>109.9109077453613</v>
+        <v>118.1842346191406</v>
       </c>
       <c r="I7" t="n">
-        <v>4.601657152175903</v>
+        <v>4.100522518157959</v>
       </c>
       <c r="J7" t="n">
-        <v>21.79087257385254</v>
+        <v>22.87094879150391</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +694,28 @@
         <v>57.98879241943359</v>
       </c>
       <c r="C8" t="n">
-        <v>36.79648017883301</v>
+        <v>38.17042922973633</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>4.047408699989319</v>
+        <v>3.712824583053589</v>
       </c>
       <c r="F8" t="n">
-        <v>272.6088485717773</v>
+        <v>258.4833679199219</v>
       </c>
       <c r="G8" t="n">
-        <v>145.8645629882812</v>
+        <v>142.8903656005859</v>
       </c>
       <c r="H8" t="n">
-        <v>123.1894493103027</v>
+        <v>124.4759521484375</v>
       </c>
       <c r="I8" t="n">
-        <v>4.989501476287842</v>
+        <v>4.586893558502197</v>
       </c>
       <c r="J8" t="n">
-        <v>23.05127859115601</v>
+        <v>23.046875</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +734,22 @@
         <v>59.98828125</v>
       </c>
       <c r="E9" t="n">
-        <v>4.445140838623047</v>
+        <v>4.387129783630371</v>
       </c>
       <c r="F9" t="n">
-        <v>390.682861328125</v>
+        <v>370.3518371582031</v>
       </c>
       <c r="G9" t="n">
-        <v>400.4150390625</v>
+        <v>277.9359436035156</v>
       </c>
       <c r="H9" t="n">
-        <v>183.8998870849609</v>
+        <v>167.7754669189453</v>
       </c>
       <c r="I9" t="n">
-        <v>5.638784885406494</v>
+        <v>5.311095237731934</v>
       </c>
       <c r="J9" t="n">
-        <v>29.00752449035645</v>
+        <v>28.08493614196777</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/estatistica.xlsx
+++ b/Modelos em Python/estatistica.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2921</v>
+        <v>17522</v>
       </c>
       <c r="C2" t="n">
-        <v>2921</v>
+        <v>17522</v>
       </c>
       <c r="D2" t="n">
-        <v>2921</v>
+        <v>17522</v>
       </c>
       <c r="E2" t="n">
-        <v>2921</v>
+        <v>17522</v>
       </c>
       <c r="F2" t="n">
-        <v>2921</v>
+        <v>17522</v>
       </c>
       <c r="G2" t="n">
-        <v>2921</v>
+        <v>17522</v>
       </c>
       <c r="H2" t="n">
-        <v>2921</v>
+        <v>17522</v>
       </c>
       <c r="I2" t="n">
-        <v>2921</v>
+        <v>17522</v>
       </c>
       <c r="J2" t="n">
-        <v>2921</v>
+        <v>17522</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.9829023416648</v>
+        <v>52.2889442682341</v>
       </c>
       <c r="C3" t="n">
-        <v>30.59513689228502</v>
+        <v>18.42090102864888</v>
       </c>
       <c r="D3" t="n">
-        <v>5.258313235794789</v>
+        <v>3.338008870324434</v>
       </c>
       <c r="E3" t="n">
-        <v>3.181964410612413</v>
+        <v>3.512739493720078</v>
       </c>
       <c r="F3" t="n">
-        <v>86.51858145263567</v>
+        <v>215.6985328876617</v>
       </c>
       <c r="G3" t="n">
-        <v>132.8740031618812</v>
+        <v>114.8316651409231</v>
       </c>
       <c r="H3" t="n">
-        <v>117.6185275191509</v>
+        <v>104.1953101069376</v>
       </c>
       <c r="I3" t="n">
-        <v>4.044488993767637</v>
+        <v>4.447778134606034</v>
       </c>
       <c r="J3" t="n">
-        <v>22.55156677257103</v>
+        <v>20.72377204769029</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.00028146120995</v>
+        <v>11.42144081587563</v>
       </c>
       <c r="C4" t="n">
-        <v>15.62722029979827</v>
+        <v>19.74156980988511</v>
       </c>
       <c r="D4" t="n">
-        <v>15.56814423624786</v>
+        <v>12.62354146954893</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6747141615253328</v>
+        <v>0.6699863638942886</v>
       </c>
       <c r="F4" t="n">
-        <v>124.4076310521603</v>
+        <v>110.2233219973648</v>
       </c>
       <c r="G4" t="n">
-        <v>18.48153044664504</v>
+        <v>43.60413833137618</v>
       </c>
       <c r="H4" t="n">
-        <v>12.82808227592323</v>
+        <v>25.63609620419062</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7062019882616415</v>
+        <v>0.6998147768900083</v>
       </c>
       <c r="J4" t="n">
-        <v>2.916551106383785</v>
+        <v>3.610445492849492</v>
       </c>
     </row>
     <row r="5">
@@ -607,10 +607,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02893518470227718</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8775122165679932</v>
+        <v>0.8419158458709717</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -623,31 +623,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.98879241943359</v>
+        <v>49.51926422119141</v>
       </c>
       <c r="C6" t="n">
-        <v>31.63124847412109</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.768741130828857</v>
+        <v>3.077391862869263</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>255.4536170959473</v>
       </c>
       <c r="G6" t="n">
-        <v>123.4008178710938</v>
+        <v>74.9120922088623</v>
       </c>
       <c r="H6" t="n">
-        <v>112.5192947387695</v>
+        <v>81.42995071411133</v>
       </c>
       <c r="I6" t="n">
-        <v>3.606250047683716</v>
+        <v>4.015279650688171</v>
       </c>
       <c r="J6" t="n">
-        <v>21.97627258300781</v>
+        <v>18.07215547561646</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +657,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57.98879241943359</v>
+        <v>57.92523002624512</v>
       </c>
       <c r="C7" t="n">
-        <v>35.20267868041992</v>
+        <v>0.05020635202527046</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.23967981338501</v>
+        <v>3.714757680892944</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1157407388091087</v>
+        <v>265.3572387695312</v>
       </c>
       <c r="G7" t="n">
-        <v>132.8843841552734</v>
+        <v>122.1488876342773</v>
       </c>
       <c r="H7" t="n">
-        <v>118.1842346191406</v>
+        <v>109.9109077453613</v>
       </c>
       <c r="I7" t="n">
-        <v>4.100522518157959</v>
+        <v>4.601657152175903</v>
       </c>
       <c r="J7" t="n">
-        <v>22.87094879150391</v>
+        <v>21.79087257385254</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +694,28 @@
         <v>57.98879241943359</v>
       </c>
       <c r="C8" t="n">
-        <v>38.17042922973633</v>
+        <v>36.79648017883301</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.712824583053589</v>
+        <v>4.047408699989319</v>
       </c>
       <c r="F8" t="n">
-        <v>258.4833679199219</v>
+        <v>272.6088485717773</v>
       </c>
       <c r="G8" t="n">
-        <v>142.8903656005859</v>
+        <v>145.8645629882812</v>
       </c>
       <c r="H8" t="n">
-        <v>124.4759521484375</v>
+        <v>123.1894493103027</v>
       </c>
       <c r="I8" t="n">
-        <v>4.586893558502197</v>
+        <v>4.989501476287842</v>
       </c>
       <c r="J8" t="n">
-        <v>23.046875</v>
+        <v>23.05127859115601</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +734,22 @@
         <v>59.98828125</v>
       </c>
       <c r="E9" t="n">
-        <v>4.387129783630371</v>
+        <v>4.445140838623047</v>
       </c>
       <c r="F9" t="n">
-        <v>370.3518371582031</v>
+        <v>390.682861328125</v>
       </c>
       <c r="G9" t="n">
-        <v>277.9359436035156</v>
+        <v>400.4150390625</v>
       </c>
       <c r="H9" t="n">
-        <v>167.7754669189453</v>
+        <v>183.8998870849609</v>
       </c>
       <c r="I9" t="n">
-        <v>5.311095237731934</v>
+        <v>5.638784885406494</v>
       </c>
       <c r="J9" t="n">
-        <v>28.08493614196777</v>
+        <v>29.00752449035645</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/estatistica.xlsx
+++ b/Modelos em Python/estatistica.xlsx
@@ -1,37 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>LT01</t>
+  </si>
+  <si>
+    <t>FT01</t>
+  </si>
+  <si>
+    <t>FT02</t>
+  </si>
+  <si>
+    <t>FT03</t>
+  </si>
+  <si>
+    <t>PT01</t>
+  </si>
+  <si>
+    <t>PT02</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +105,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,339 +421,299 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>LT01</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>FT01</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>FT02</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>FT03</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>PT01</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>PT02</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>17522</v>
-      </c>
-      <c r="C2" t="n">
-        <v>17522</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17522</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17522</v>
-      </c>
-      <c r="F2" t="n">
-        <v>17522</v>
-      </c>
-      <c r="G2" t="n">
-        <v>17522</v>
-      </c>
-      <c r="H2" t="n">
-        <v>17522</v>
-      </c>
-      <c r="I2" t="n">
-        <v>17522</v>
-      </c>
-      <c r="J2" t="n">
-        <v>17522</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="1" spans="1:10">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>17522</v>
+      </c>
+      <c r="C2">
+        <v>17522</v>
+      </c>
+      <c r="D2">
+        <v>17522</v>
+      </c>
+      <c r="E2">
+        <v>17522</v>
+      </c>
+      <c r="F2">
+        <v>17522</v>
+      </c>
+      <c r="G2">
+        <v>17522</v>
+      </c>
+      <c r="H2">
+        <v>17522</v>
+      </c>
+      <c r="I2">
+        <v>17522</v>
+      </c>
+      <c r="J2">
+        <v>17522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>52.2889442682341</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>18.42090102864888</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>3.338008870324434</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>3.512739493720078</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>215.6985328876617</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>114.8316651409231</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>104.1953101069376</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>4.447778134606034</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>20.72377204769029</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>11.42144081587563</v>
-      </c>
-      <c r="C4" t="n">
-        <v>19.74156980988511</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.62354146954893</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.6699863638942886</v>
-      </c>
-      <c r="F4" t="n">
-        <v>110.2233219973648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>43.60413833137618</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25.63609620419062</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.6998147768900083</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.610445492849492</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>11.42144081587591</v>
+      </c>
+      <c r="C4">
+        <v>19.74156980988396</v>
+      </c>
+      <c r="D4">
+        <v>12.62354146954658</v>
+      </c>
+      <c r="E4">
+        <v>0.6699863638942894</v>
+      </c>
+      <c r="F4">
+        <v>110.2233219973632</v>
+      </c>
+      <c r="G4">
+        <v>43.60413833137623</v>
+      </c>
+      <c r="H4">
+        <v>25.63609620419066</v>
+      </c>
+      <c r="I4">
+        <v>0.6998147768900088</v>
+      </c>
+      <c r="J4">
+        <v>3.610445492849506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>0.2940758466720581</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>0.8419158458709717</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
         <v>49.51926422119141</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>3.077391862869263</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>255.4536170959473</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>74.9120922088623</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>81.42995071411133</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>4.015279650688171</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>18.07215547561646</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
         <v>57.92523002624512</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.05020635202527046</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>3.714757680892944</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>265.3572387695312</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>122.1488876342773</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>109.9109077453613</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>4.601657152175903</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>21.79087257385254</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
         <v>57.98879241943359</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>36.79648017883301</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4.047408699989319</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>272.6088485717773</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>145.8645629882812</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>123.1894493103027</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>4.989501476287842</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>23.05127859115601</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
         <v>59.98828125</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>59.991943359375</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>59.98828125</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>4.445140838623047</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>390.682861328125</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>400.4150390625</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>183.8998870849609</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>5.638784885406494</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>29.00752449035645</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>